--- a/波段.xlsx
+++ b/波段.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15915" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="15915" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="234">
   <si>
     <t>Indian Pines</t>
   </si>
@@ -261,6 +262,57 @@
     <t>[3;34;35;36;37;38;39;40;41;42;43;44;45;46;47;48;49;50;51;52;53;54;55;56;57;58;59;60;61;62;63;64;65;66;67;68;69;70;71;72;73;74;82;83;84;85;86;87;88;91]</t>
   </si>
   <si>
+    <t>[91;92;95;96;103]</t>
+  </si>
+  <si>
+    <t>[90;91;92;95;96;103]</t>
+  </si>
+  <si>
+    <t>[90;91;92;95;96;101;103]</t>
+  </si>
+  <si>
+    <t>[13;81;82;90;93;94;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;90;91;93;94;96;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;90;92;93;94;95;96;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;90;91;92;93;94;95;96;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;89;90;91;92;93;94;95;96;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;88;89;90;91;92;93;94;95;96;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;87;88;89;90;91;92;93;94;95;96;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;83;87;88;89;90;91;92;93;94;95;96;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;83;86;87;88;89;90;91;92;93;94;95;96;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;83;86;87;88;89;90;91;92;93;94;95;96;98;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;83;86;87;88;89;90;91;92;93;94;95;96;97;98;101;103]</t>
+  </si>
+  <si>
+    <t>[81;82;83;86;87;88;89;90;91;92;93;94;95;96;97;98;101;102;103]</t>
+  </si>
+  <si>
+    <t>[81;82;83;86;87;88;89;90;91;92;93;94;95;96;97;98;100;101;102;103]</t>
+  </si>
+  <si>
+    <t>[1;2;3;77;78;79;80;81;82;83;84;85;86;87;88;89;90;91;92;93;94;95;96;97;98;99;100;101;102;103]</t>
+  </si>
+  <si>
     <t>[1;2;3;4;68;69;70;71;72;73;74;75;76;77;78;79;80;81;82;83;84;85;86;87;88;89;90;91;92;93;94;95;96;97;98;99;100;101;102;103]</t>
   </si>
   <si>
@@ -496,6 +548,177 @@
   </si>
   <si>
     <t>[111;146;107;149;155;204;202;56;55;54;83;110;95;144;154;106;53;94;48;52;47;115;96;150;128;42;51;41;45;49;46;43;44;93;50;99;40;118;98;201;127;179;174;97;182;185;134;92;199;177]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107;22]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107;22;108]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107;22;108;21]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107;22;108;21;109]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107;22;108;21;109;20]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107;22;108;21;109;20;29]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107;22;108;21;109;20;29;19;30;110;144;138;142;137;111;143;18]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107;22;108;21;109;20;29;19;30;110;144;138;142;137;111;143;18;145;147;152;146;148;153;112;149;17;141]</t>
+  </si>
+  <si>
+    <t>[100;102;104;28;26;27;103;25;101;105;24;106;23;107;22;108;21;109;20;29;19;30;110;144;138;142;137;111;143;18;145;147;152;146;148;153;112;149;17;141;151;150;154;136;157;72;156;139;31;113]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86;98]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86;98;102]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86;98;102;85]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86;98;102;85;103]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86;98;102;85;103;99]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86;98;102;85;103;99;100]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86;98;102;85;103;99;100;81;84;101;80;79;78;63;62;61;64]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86;98;102;85;103;99;100;81;84;101;80;79;78;63;62;61;64;60;59;58;65;57;77;56;20;55;19]</t>
+  </si>
+  <si>
+    <t>[91;88;90;89;87;92;83;93;95;94;97;96;82;86;98;102;85;103;99;100;81;84;101;80;79;78;63;62;61;64;60;59;58;65;57;77;56;20;55;19;54;21;18;66;22;53;17;52;23;49]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56;42]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56;42;57]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56;42;57;58]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56;42;57;58;59]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56;42;57;58;59;60]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56;42;57;58;59;60;61]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56;42;57;58;59;60;61;41;62;75;74;73;76;158;160;72;157]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56;42;57;58;59;60;61;41;62;75;74;73;76;158;160;72;157;159;77;162;161;63;71;163;78;164;165]</t>
+  </si>
+  <si>
+    <t>[44;43;45;49;47;46;48;50;52;51;53;54;55;56;42;57;58;59;60;61;41;62;75;74;73;76;158;160;72;157;159;77;162;161;63;71;163;78;164;165;70;166;167;168;79;69;64;169;68;170]</t>
   </si>
 </sst>
 </file>
@@ -508,10 +731,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -973,153 +1203,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,8 +1705,8 @@
   <sheetPr/>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A65"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1985,8 +2218,8 @@
   <sheetPr/>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2169,89 +2402,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2259,7 +2543,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2267,12 +2551,12 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2288,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2296,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2304,7 +2588,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2312,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2320,7 +2604,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2328,7 +2612,7 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2336,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2344,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2352,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2360,7 +2644,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2368,7 +2652,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2376,7 +2660,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2384,7 +2668,7 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2392,7 +2676,7 @@
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2400,7 +2684,7 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2408,7 +2692,7 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2416,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2424,7 +2708,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2432,7 +2716,7 @@
         <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2731,7 @@
   <sheetPr/>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +2755,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2479,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2487,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2495,7 +2779,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2503,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2511,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2519,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2527,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2535,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2543,7 +2827,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2551,7 +2835,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2559,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2567,7 +2851,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2575,7 +2859,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2583,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2591,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2599,7 +2883,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2607,7 +2891,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2615,7 +2899,7 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -2636,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2644,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2652,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2660,7 +2944,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2668,7 +2952,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2676,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2684,7 +2968,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2692,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2700,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2708,7 +2992,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2716,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2724,7 +3008,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2732,7 +3016,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2740,7 +3024,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2748,7 +3032,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2756,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2764,7 +3048,7 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2772,7 +3056,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2780,7 +3064,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -2801,7 +3085,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2809,7 +3093,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2817,7 +3101,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2825,7 +3109,7 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2833,7 +3117,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2841,7 +3125,7 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2849,7 +3133,7 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2857,7 +3141,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2865,7 +3149,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2873,7 +3157,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2881,7 +3165,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2889,7 +3173,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2897,7 +3181,7 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2905,7 +3189,7 @@
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2913,7 +3197,7 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2921,7 +3205,7 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2929,7 +3213,7 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2937,7 +3221,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2945,7 +3229,7 @@
         <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2953,4 +3237,516 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>50</v>
+      </c>
+      <c r="B65" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>